--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl-my.sharepoint.com/personal/mariapluta_student_agh_edu_pl/Documents/Pulpit/agh/STUDENTS_MID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA8D79-DD38-494B-91FC-0BD5B1215B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{14AA8D79-DD38-494B-91FC-0BD5B1215B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7346A2-97A3-4B74-A7FC-013F896AC761}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="34560" windowHeight="13644" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="142" r:id="rId1"/>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="190">
   <si>
     <t>Moc osiągalna elektryczna netto</t>
   </si>
@@ -1260,6 +1260,33 @@
   </si>
   <si>
     <t>5-year change (demand forecast)</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>ELEC_ML</t>
+  </si>
+  <si>
+    <t>Electricity 220 and 440 kV</t>
+  </si>
+  <si>
+    <t>Electricity 110 kV</t>
+  </si>
+  <si>
+    <t>Electricity SN and NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELC </t>
+  </si>
+  <si>
+    <t>ELEC_HV_DEM</t>
+  </si>
+  <si>
+    <t>ELEC_LV_DEM</t>
+  </si>
+  <si>
+    <t>ELEC_MV_DEM</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +2001,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_S301-339-05" xfId="6" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
     <cellStyle name="Normalny_T206" xfId="5" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
     <cellStyle name="Per cent 2" xfId="3" xr:uid="{DDC5681C-F033-4AC5-9897-895307FDA964}"/>
@@ -2480,44 +2507,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C743E0-1E87-45A7-98CA-E678762B7428}">
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="42" customWidth="1"/>
     <col min="4" max="4" width="15" style="42" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="42" customWidth="1"/>
     <col min="7" max="7" width="10" style="42" customWidth="1"/>
     <col min="8" max="8" width="12" style="42" customWidth="1"/>
     <col min="9" max="9" width="11" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="42"/>
+    <col min="10" max="10" width="10.54296875" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
         <v>173</v>
       </c>
       <c r="C2" s="41"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="43" t="s">
         <v>167</v>
       </c>
       <c r="C5" s="43"/>
     </row>
-    <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="39" x14ac:dyDescent="0.25">
       <c r="B6" s="83" t="s">
         <v>156</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="52" x14ac:dyDescent="0.25">
       <c r="B7" s="84"/>
       <c r="C7" s="87"/>
       <c r="D7" s="14" t="s">
@@ -2571,7 +2598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.5" x14ac:dyDescent="0.3">
       <c r="B8" s="85"/>
       <c r="C8" s="88"/>
       <c r="D8" s="46" t="s">
@@ -2596,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
@@ -2619,7 +2646,7 @@
       <c r="I9" s="49"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2669,7 @@
       <c r="I10" s="49"/>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
@@ -2667,7 +2694,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2719,7 @@
         <v>32467</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2738,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2757,7 @@
       <c r="I14" s="49"/>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2780,7 @@
       <c r="I15" s="49"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52" t="s">
         <v>18</v>
       </c>
@@ -2774,7 +2801,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>165</v>
       </c>
@@ -2798,21 +2825,21 @@
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="41" t="s">
         <v>176</v>
       </c>
@@ -2821,7 +2848,7 @@
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="43" t="s">
         <v>168</v>
       </c>
@@ -2830,7 +2857,7 @@
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="43" t="s">
         <v>169</v>
       </c>
@@ -2839,7 +2866,7 @@
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="89" t="s">
         <v>20</v>
       </c>
@@ -2854,7 +2881,7 @@
       </c>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="90"/>
       <c r="C28" s="92"/>
       <c r="D28" s="14" t="s">
@@ -2865,7 +2892,7 @@
       </c>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="56" t="s">
         <v>23</v>
       </c>
@@ -2881,7 +2908,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="56" t="s">
         <v>23</v>
       </c>
@@ -2897,7 +2924,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="56" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2939,7 @@
       </c>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="58" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2954,7 @@
       </c>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>165</v>
       </c>
@@ -2936,7 +2963,7 @@
       <c r="E33" s="61"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
@@ -2945,7 +2972,7 @@
       <c r="E34" s="61"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>174</v>
       </c>
@@ -2954,21 +2981,21 @@
       <c r="E35" s="61"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="61"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="61"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="41" t="s">
         <v>179</v>
       </c>
@@ -2977,14 +3004,14 @@
       <c r="E38" s="61"/>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="61"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="43" t="s">
         <v>170</v>
       </c>
@@ -2993,7 +3020,7 @@
       <c r="E40" s="61"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="43" t="s">
         <v>171</v>
       </c>
@@ -3002,7 +3029,7 @@
       <c r="E41" s="61"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="89" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3044,7 @@
       </c>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="90"/>
       <c r="C43" s="92"/>
       <c r="D43" s="2" t="s">
@@ -3028,7 +3055,7 @@
       </c>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>23</v>
       </c>
@@ -3044,7 +3071,7 @@
       </c>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="58" t="s">
         <v>24</v>
       </c>
@@ -3060,7 +3087,7 @@
       </c>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>165</v>
       </c>
@@ -3069,7 +3096,7 @@
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>19</v>
       </c>
@@ -3083,7 +3110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
     </row>
@@ -3106,26 +3133,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B2" s="70" t="s">
         <v>113</v>
       </c>
@@ -3137,7 +3164,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -3147,7 +3174,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>124</v>
       </c>
@@ -3322,10 +3349,56 @@
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="17"/>
+      <c r="I12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
@@ -3342,25 +3415,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="70" t="s">
         <v>114</v>
       </c>
@@ -3373,7 +3446,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
@@ -3384,7 +3457,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>44</v>
       </c>
@@ -3426,7 +3499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
@@ -3455,7 +3528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>115</v>
       </c>
@@ -3538,105 +3611,186 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+    <row r="10" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C23" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="63" t="s">
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C24" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="D24" s="63"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C25" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="63" t="s">
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C26" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="D26" s="63"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C27" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D27" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="63" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C28" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D28" s="63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C29" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D29" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="63" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C30" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D30" s="63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+    <row r="31" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C31" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3647,34 +3801,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="47.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="25"/>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
       <c r="C3" s="18"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="22" t="s">
         <v>57</v>
       </c>
@@ -3806,33 +3960,33 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="6" width="8.54296875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.08984375" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>31</v>
       </c>
@@ -3891,7 +4045,7 @@
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
     </row>
-    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="str">
         <f>SEC_Comm!C10</f>
         <v>ELEC_FIN</v>
@@ -3929,7 +4083,7 @@
         <v>834.83506041162809</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="str">
         <f>SEC_Comm!C11</f>
         <v>HEAT_FIN</v>
@@ -3972,7 +4126,7 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="94" t="s">
         <v>180</v>
       </c>
@@ -4013,21 +4167,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -4204,15 +4343,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233FBB46-FAE6-4387-83FB-D21CAE108F15}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4226,5 +4386,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233FBB46-FAE6-4387-83FB-D21CAE108F15}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>